--- a/pcb/sensactHsLed3/Auslegungsrechnungen.xlsx
+++ b/pcb/sensactHsLed3/Auslegungsrechnungen.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\sensact\pcb\sensactHsLed3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCF5DFEA-7704-4D02-881C-2B6C442B3843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FD3588-1FF4-4658-AFB0-11E3F599A21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15370" xr2:uid="{9392B91A-A438-4D9B-A346-94128D0CEED5}"/>
+    <workbookView xWindow="-90" yWindow="5590" windowWidth="28800" windowHeight="15380" activeTab="1" xr2:uid="{9392B91A-A438-4D9B-A346-94128D0CEED5}"/>
   </bookViews>
   <sheets>
     <sheet name="L" sheetId="1" r:id="rId1"/>
+    <sheet name="15V" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Vin</t>
   </si>
@@ -56,6 +57,12 @@
   </si>
   <si>
     <t>Lmin (uH)</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
   </si>
 </sst>
 </file>
@@ -409,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F3DAF8-AB9B-45D7-A461-720DA0A02633}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -470,4 +477,44 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D6B876-4388-444B-9CC4-560F903CC170}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>1.25*(1+B2/B1)</f>
+        <v>15.3125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>